--- a/Monster.xlsx
+++ b/Monster.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>#</t>
   </si>
@@ -24,6 +24,12 @@
     <t>怪物配置表</t>
   </si>
   <si>
+    <t>黄色--新动作文件</t>
+  </si>
+  <si>
+    <t>蓝色--原有动作</t>
+  </si>
+  <si>
     <t>MonsterID</t>
   </si>
   <si>
@@ -48,7 +54,13 @@
     <t>AIID</t>
   </si>
   <si>
-    <t>WeaponID</t>
+    <t>WeaponID1</t>
+  </si>
+  <si>
+    <t>WeaponID2</t>
+  </si>
+  <si>
+    <t>WeaponID3</t>
   </si>
   <si>
     <t>BaseAttack</t>
@@ -57,6 +69,9 @@
     <t>BaseHP</t>
   </si>
   <si>
+    <t>DamageReduce</t>
+  </si>
+  <si>
     <t>Scale</t>
   </si>
   <si>
@@ -96,7 +111,13 @@
     <t>AI编号</t>
   </si>
   <si>
-    <t>武器ID</t>
+    <t>武器ID1</t>
+  </si>
+  <si>
+    <t>武器ID2</t>
+  </si>
+  <si>
+    <t>武器ID3</t>
   </si>
   <si>
     <t>基础攻击</t>
@@ -105,6 +126,9 @@
     <t>基础生命</t>
   </si>
   <si>
+    <t>伤害减免</t>
+  </si>
+  <si>
     <t>显示比例</t>
   </si>
   <si>
@@ -114,25 +138,341 @@
     <t>树妖</t>
   </si>
   <si>
+    <t>monster_1001</t>
+  </si>
+  <si>
+    <t>monster_1001_shoot</t>
+  </si>
+  <si>
+    <t>monster_1001_idle</t>
+  </si>
+  <si>
     <t>竹子怪</t>
   </si>
   <si>
+    <t>monster_1002</t>
+  </si>
+  <si>
+    <t>monster_1002_shoot</t>
+  </si>
+  <si>
+    <t>monster_1002_idle</t>
+  </si>
+  <si>
     <t>河童</t>
   </si>
   <si>
+    <t>monster_1003</t>
+  </si>
+  <si>
+    <t>monster_1003_shoot</t>
+  </si>
+  <si>
+    <t>monster_1003_move</t>
+  </si>
+  <si>
     <t>丧鬼</t>
   </si>
   <si>
+    <t>monster_1004</t>
+  </si>
+  <si>
+    <t>monster_1004_attack</t>
+  </si>
+  <si>
+    <t>monster_1004_move</t>
+  </si>
+  <si>
     <t>灯笼</t>
   </si>
   <si>
+    <t>monster_1005</t>
+  </si>
+  <si>
+    <t>monster_1005_rush</t>
+  </si>
+  <si>
+    <t>monster_1005_move</t>
+  </si>
+  <si>
     <t>晴天娃娃</t>
   </si>
   <si>
+    <t>monster_1006</t>
+  </si>
+  <si>
+    <t>monster_1006_rush</t>
+  </si>
+  <si>
+    <t>monster_1006_move</t>
+  </si>
+  <si>
     <t>草头怪</t>
   </si>
   <si>
+    <t>monster_1007</t>
+  </si>
+  <si>
+    <t>monster_1007_shoot</t>
+  </si>
+  <si>
+    <t>monster_1007_idle</t>
+  </si>
+  <si>
     <t>招财猫</t>
+  </si>
+  <si>
+    <t>monster_1008</t>
+  </si>
+  <si>
+    <t>monster_1008_shoot</t>
+  </si>
+  <si>
+    <t>monster_1008_move</t>
+  </si>
+  <si>
+    <t>丧鬼变色</t>
+  </si>
+  <si>
+    <t>monster_1009</t>
+  </si>
+  <si>
+    <t>monster_1009_attack</t>
+  </si>
+  <si>
+    <t>monster_1009_move</t>
+  </si>
+  <si>
+    <t>树妖（变色）</t>
+  </si>
+  <si>
+    <t>monster_1010</t>
+  </si>
+  <si>
+    <t>monster_1010_shoot</t>
+  </si>
+  <si>
+    <t>monster_1010_idle</t>
+  </si>
+  <si>
+    <t>河童（变色）</t>
+  </si>
+  <si>
+    <t>monster_1011</t>
+  </si>
+  <si>
+    <t>monster_1011_shoot</t>
+  </si>
+  <si>
+    <t>monster_1011_move</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草头怪（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>monster_1012</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒鬼（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）（丧鬼换头）</t>
+    </r>
+  </si>
+  <si>
+    <t>monster_1013</t>
+  </si>
+  <si>
+    <t>monster_1013_attack</t>
+  </si>
+  <si>
+    <t>monster_1013_move</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝龙（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>monster_1014</t>
+  </si>
+  <si>
+    <t>monster_1014_attack</t>
+  </si>
+  <si>
+    <t>monster_1014_move</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>树妖（变色）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>monster_1015</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>招财猫（变色）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>monster_1016</t>
+  </si>
+  <si>
+    <t>monster_1016_shoot</t>
+  </si>
+  <si>
+    <t>monster_1016_move</t>
   </si>
 </sst>
 </file>
@@ -140,12 +480,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,113 +494,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +534,67 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,8 +607,61 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,19 +670,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,43 +808,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,108 +863,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +873,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,20 +911,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,48 +960,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +981,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,138 +993,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,7 +1487,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -1108,169 +1495,216 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="8" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="11" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:17">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1282,24 +1716,42 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N5">
+        <v>300</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:17">
       <c r="B6">
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1311,24 +1763,42 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N6">
+        <v>300</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:17">
       <c r="B7">
         <v>1003</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
       </c>
       <c r="H7">
         <v>100</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1340,24 +1810,42 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N7">
+        <v>300</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:17">
       <c r="B8">
         <v>1004</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1369,24 +1857,42 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N8">
+        <v>300</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:17">
       <c r="B9">
         <v>1005</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
       <c r="H9">
         <v>100</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1398,24 +1904,42 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N9">
+        <v>300</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:17">
       <c r="B10">
         <v>1006</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
       </c>
       <c r="H10">
         <v>100</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1427,24 +1951,42 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N10">
+        <v>300</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:17">
       <c r="B11">
         <v>1007</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
       </c>
       <c r="H11">
         <v>100</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1456,24 +1998,42 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N11">
+        <v>300</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:17">
       <c r="B12">
         <v>1008</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
       </c>
       <c r="H12">
         <v>100</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1485,9 +2045,394 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N12">
+        <v>300</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>1009</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>300</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>1010</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>300</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>1011</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <v>300</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>1012</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>2000</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>1013</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>2000</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>1014</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18">
+        <v>2000</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>1015</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19">
+        <v>2000</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>1016</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
+      </c>
+      <c r="N20">
+        <v>2000</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
         <v>0</v>
       </c>
     </row>
